--- a/tom_february_ONLY.xlsx
+++ b/tom_february_ONLY.xlsx
@@ -34,7 +34,7 @@
     <t xml:space="preserve">Ai</t>
   </si>
   <si>
-    <t xml:space="preserve">Well done this month Ai! You were so fast to pick up the Q&amp;A this month (“What do you want to be?” “I want to be a Unicorn!”).  You’re really confident now when speaking English,  and your phonics and listening is getting very good!</t>
+    <t xml:space="preserve">Well done this month Ai! You were so fast to pick up the Q&amp;A this month (“What do you want to be?” “I want to be a Unicorn!”). You’re really confident now when speaking English, and your phonics + listening is getting very good!</t>
   </si>
   <si>
     <t xml:space="preserve"> </t>
@@ -43,7 +43,7 @@
     <t xml:space="preserve">Aoi M</t>
   </si>
   <si>
-    <t xml:space="preserve">Well done this month Aoi! It’s so great to see your writing and reading improve, you did a great job on the handwriting sheet this month! You’re always so polite &amp; well behaved, and your phonics and listening is getting very good!</t>
+    <t xml:space="preserve">Well done this month Aoi! It’s so great to see your writing and reading improve, you did a great job on the handwriting sheet this month! You’re always so polite &amp; well behaved, and your phonics + listening is getting very good!</t>
   </si>
   <si>
     <t xml:space="preserve">Arisa</t>
@@ -55,19 +55,19 @@
     <t xml:space="preserve">Ayumu</t>
   </si>
   <si>
-    <t xml:space="preserve">Excellent work this month Ayumu! You were so fast to pick up the Q&amp;A this month (“What do you want to be?” “I want to be a Unicorn!”). You’ve been so friendly &amp; get along well with the other kids in class, and your phonics and listening is getting very good!</t>
+    <t xml:space="preserve">Excellent work this month Ayumu! You were so fast to pick up the Q&amp;A this month (“What do you want to be?” “I want to be a Knight!”). You’ve been so friendly &amp; get along well with the other kids in class, and your phonics + listening is getting very good!</t>
   </si>
   <si>
     <t xml:space="preserve">Beni</t>
   </si>
   <si>
-    <t xml:space="preserve">Great job this month Beni! You’re always singing and answering with a big voice during calendar time. You’ve been so friendly &amp; get along well with the other kids in class,  and your phonics and listening is getting very good!</t>
+    <t xml:space="preserve">Great job this month Beni! You’re always singing and answering with a big voice during calendar time. You’ve been so friendly &amp; get along well with the other kids in class, and your phonics + listening is getting very good!</t>
   </si>
   <si>
     <t xml:space="preserve">Emi</t>
   </si>
   <si>
-    <t xml:space="preserve">Excellent work this month Emi! You’re always singing and answering with a big voice during calendar time. You’ve been so friendly &amp; get along well with the other kids in class,  and your phonics and listening is getting very good!</t>
+    <t xml:space="preserve">Excellent work this month Emi! You’re always singing and answering with a big voice during calendar time. You’ve been so friendly &amp; get along well with the other kids in class, and your phonics + listening is getting very good!</t>
   </si>
   <si>
     <t xml:space="preserve">Haruto</t>
@@ -79,19 +79,19 @@
     <t xml:space="preserve">Hiroto</t>
   </si>
   <si>
-    <t xml:space="preserve">Well done this month Hiroto! It’s great to hear you using English in class during snack time, and when I hand your workbooks back. I saw you really enjoyed the Pinocchio song &amp; dance, you were having so much fun doing the silly actions – and it’s great to see you doing lots of workbook at time!</t>
+    <t xml:space="preserve">Well done this month Hiroto! It’s great to hear you using English in class during snack time, and when I hand your workbooks back. I saw you really enjoyed the Pinocchio song &amp; dance, you were having so much fun doing the silly actions – great job!</t>
   </si>
   <si>
     <t xml:space="preserve">Hisui</t>
   </si>
   <si>
-    <t xml:space="preserve">Excellent work this month Hisui! It’s so great to see your writing and reading improve, you did a great job on the handwriting sheet this month!  You’re really confident now when speaking English,  and your phonics and listening is getting very good!</t>
+    <t xml:space="preserve">Excellent work this month Hisui! It’s so great to see your writing and reading improve, you did a great job on the handwriting sheet this month! You’re really confident now when speaking English, and your phonics + listening is getting very good!</t>
   </si>
   <si>
     <t xml:space="preserve">Hiyori</t>
   </si>
   <si>
-    <t xml:space="preserve">Excellent work this month Hiyori! It’s so great to see your writing and reading improve, you did a great job on the handwriting sheet this month!  You’re really confident now when speaking English,  and your phonics and listening is getting very good!</t>
+    <t xml:space="preserve">Excellent work this month Hiyori! It’s so great to see your writing and reading improve, you did a great job on the handwriting sheet this month! You’re really confident now when speaking English, and your phonics + listening is getting very good!</t>
   </si>
   <si>
     <t xml:space="preserve">Junichi</t>
@@ -109,13 +109,13 @@
     <t xml:space="preserve">Kansuke</t>
   </si>
   <si>
-    <t xml:space="preserve">Well done this month Kansuke! You were so fast to pick up the Q&amp;A this month (“What do you want to be?” “I want to be a Unicorn!”). You’re really confident when speaking English, and you did a great job both writing and reading the 3 letter words on the handwriting worksheet, excellent!</t>
+    <t xml:space="preserve">Well done this month Kansuke! You were so fast to pick up the Q&amp;A this month (“What do you want to be?” “I want to be a Knight!”). You’re really confident when speaking English, and you did a great job both writing and reading the 3 letter words on the handwriting worksheet, excellent!</t>
   </si>
   <si>
     <t xml:space="preserve">Kanta</t>
   </si>
   <si>
-    <t xml:space="preserve">Well done this month Kanta! You were so fast to pick up the Q&amp;A this month (“What do you want to be?” “I want to be a Unicorn!”). You’re really confident when speaking English, and you did a great job both writing and reading the 3 letter words on the handwriting worksheet, excellent!</t>
+    <t xml:space="preserve">Well done this month Kanta! You were so fast to pick up the Q&amp;A this month (“What do you want to be?” “I want to be a Knight!”). You’re really confident when speaking English, and you did a great job both writing and reading the 3 letter words on the handwriting worksheet, excellent!</t>
   </si>
   <si>
     <t xml:space="preserve">Kasumi</t>
@@ -127,7 +127,7 @@
     <t xml:space="preserve">Kimueru</t>
   </si>
   <si>
-    <t xml:space="preserve">Awesome work this month Kimueru! It’s so great to see your writing and reading improve, you did a great job on the handwriting sheet this month! You’re always so polite &amp; well behaved, and your phonics and listening is getting very good!</t>
+    <t xml:space="preserve">Awesome work this month Kimueru! It’s so great to see your writing and reading improve, you did a great job on the handwriting sheet this month! You’re always so polite &amp; well behaved, and your phonics + listening is getting very good!</t>
   </si>
   <si>
     <t xml:space="preserve">Lala</t>
@@ -145,7 +145,7 @@
     <t xml:space="preserve">Manaka</t>
   </si>
   <si>
-    <t xml:space="preserve">Excellent work this month Manaka! It’s so great to see your writing and reading improve, you did a great job on the handwriting sheet this month!  You’re really confident now when speaking English,  and your phonics and listening is getting very good!</t>
+    <t xml:space="preserve">Excellent work this month Manaka! It’s so great to see your writing and reading improve, you did a great job on the handwriting sheet this month! You’re really confident now when speaking English, and your phonics + listening is getting very good!</t>
   </si>
   <si>
     <t xml:space="preserve">Mayu</t>
@@ -163,25 +163,25 @@
     <t xml:space="preserve">Mengtao</t>
   </si>
   <si>
-    <t xml:space="preserve">Excellent work this month Mengtao! It’s so great to see your writing and reading improve, you did a great job on the handwriting sheet this month! You’re always so polite &amp; well behaved, and your phonics and listening is getting very good!</t>
+    <t xml:space="preserve">Excellent work this month Mengtao! It’s so great to see your writing and reading improve, you did a great job on the handwriting sheet this month! You’re always so polite &amp; well behaved, and your phonics + listening is getting very good!</t>
   </si>
   <si>
     <t xml:space="preserve">Mio F</t>
   </si>
   <si>
-    <t xml:space="preserve">Excellent work this month Mio! You had so much fun singing &amp; dancing to the Pinocchio song!  You’re really confident now when speaking English,  and you did a great job remembering the Valentines Day words &amp; phrases!</t>
+    <t xml:space="preserve">Excellent work this month Mio! You had so much fun singing &amp; dancing to the Pinocchio song! You’re really confident now when speaking English, and you did a great job remembering the Valentines Day words &amp; phrases!</t>
   </si>
   <si>
     <t xml:space="preserve">Mio S</t>
   </si>
   <si>
-    <t xml:space="preserve">Well done this month Mio! It’s so great to see your writing and reading improve, you did a great job on the handwriting sheet this month! You’re really confident now when speaking English,  Tomomi &amp; I are so impressed with your big voice, especially during calendar time!</t>
+    <t xml:space="preserve">Well done this month Mio! It’s so great to see your writing and reading improve, you did a great job on the handwriting sheet this month! You’re really confident now when speaking English, Tomomi &amp; I are so impressed with your big voice, especially during calendar time!</t>
   </si>
   <si>
     <t xml:space="preserve">Miran</t>
   </si>
   <si>
-    <t xml:space="preserve">Excellent work this month Miran! It’s so great to see your writing and reading improve, you did a great job on the handwriting sheet this month! You’re always so polite &amp; well behaved, and your phonics and listening is getting very good!</t>
+    <t xml:space="preserve">Excellent work this month Miran! It’s so great to see your writing and reading improve, you did a great job on the handwriting sheet this month! You’re always so polite &amp; well behaved, and your phonics + listening is getting very good!</t>
   </si>
   <si>
     <t xml:space="preserve">Momoa</t>
@@ -193,7 +193,7 @@
     <t xml:space="preserve">Reika</t>
   </si>
   <si>
-    <t xml:space="preserve">Awesome work this month Reika! You had so much fun singing &amp; dancing to the Pinocchio song!  You’re always so polite &amp; well behaved, and you did a great job remembering the Valentines Day words &amp; phrases!</t>
+    <t xml:space="preserve">Awesome work this month Reika! You had so much fun singing &amp; dancing to the Pinocchio song! You’re always so polite &amp; well behaved, and you did a great job remembering the Valentines Day words &amp; phrases!</t>
   </si>
   <si>
     <t xml:space="preserve">Reina</t>
@@ -217,7 +217,7 @@
     <t xml:space="preserve">Ryosei N</t>
   </si>
   <si>
-    <t xml:space="preserve">Well done this month Ryosei! You were so fast to pick up the Q&amp;A this month (“What do you want to be?” “I want to be a Unicorn!”). You’re always so friendly &amp; get along well with the other kids in class, and you learned so many of the fairy tale flash cards, you could even help me describe many of them!</t>
+    <t xml:space="preserve">Well done this month Ryosei! You were so fast to pick up the Q&amp;A this month (“What do you want to be?” “I want to be a Knight!”). You’re always so friendly &amp; get along well with the other kids in class, and you learned so many of the fairy tale flash cards, you could even help me describe many of them!</t>
   </si>
   <si>
     <t xml:space="preserve">Ryosuke</t>
@@ -229,19 +229,19 @@
     <t xml:space="preserve">Saki</t>
   </si>
   <si>
-    <t xml:space="preserve">Well done this month Saki! You had so much fun singing &amp; dancing to the Pinocchio song!  You’re always so polite &amp; well behaved, and you learned so many of the fairy tale flash cards, you could even help me describe some of them!</t>
+    <t xml:space="preserve">Well done this month Saki! You had so much fun singing &amp; dancing to the Pinocchio song! You’re always so polite &amp; well behaved, and you learned so many of the fairy tale flash cards, you could even help me describe some of them!</t>
   </si>
   <si>
     <t xml:space="preserve">Sara</t>
   </si>
   <si>
-    <t xml:space="preserve">Excellent work this month Sara! You were so fast to pick up the Q&amp;A this month (“What do you want to be?” “I want to be a Unicorn!”).  You’re really confident now when speaking English,  and you learned most of the fairy tale flash cards, you could even help me describe some of them!</t>
+    <t xml:space="preserve">Excellent work this month Sara! You were so fast to pick up the Q&amp;A this month (“What do you want to be?” “I want to be a Unicorn!”). You’re really confident now when speaking English, and you learned most of the fairy tale flash cards, you could even help me describe some of them!</t>
   </si>
   <si>
     <t xml:space="preserve">Shotaro</t>
   </si>
   <si>
-    <t xml:space="preserve">Excellent work this month Shotaro! It’s so great to see your writing and reading improve, you did a great job on the handwriting sheet this month!  You’re really confident now when speaking English,  and your phonics and listening is getting very good!</t>
+    <t xml:space="preserve">Excellent work this month Shotaro! It’s so great to see your writing and reading improve, you did a great job on the handwriting sheet this month! You’re really confident now when speaking English, and your phonics + listening is getting very good!</t>
   </si>
   <si>
     <t xml:space="preserve">Soichiro</t>
@@ -253,13 +253,13 @@
     <t xml:space="preserve">Soma</t>
   </si>
   <si>
-    <t xml:space="preserve">Awesome work this month Soma! It’s so great to see your writing and reading improve, you did a great job on the handwriting sheet this month! You’re always so polite &amp; well behaved, and your phonics and listening is getting very good!</t>
+    <t xml:space="preserve">Awesome work this month Soma! It’s so great to see your writing and reading improve, you did a great job on the handwriting sheet this month! You’re always so polite &amp; well behaved, and your phonics + listening is getting very good!</t>
   </si>
   <si>
     <t xml:space="preserve">Taichi</t>
   </si>
   <si>
-    <t xml:space="preserve">Well done this month Taichi! You were so fast to pick up the Q&amp;A this month (“What do you want to be?” “I want to be a Unicorn!”). You’ve been so friendly &amp; get along well with the other kids in class, and you learned so many of the fairy tale flash cards, you could even help me describe some of them!</t>
+    <t xml:space="preserve">Well done this month Taichi! You were so fast to pick up the Q&amp;A this month (“What do you want to be?” “I want to be a Knight!”). You’ve been so friendly &amp; get along well with the other kids in class, and you learned so many of the fairy tale flash cards, you could even help me describe some of them!</t>
   </si>
   <si>
     <t xml:space="preserve">Togo</t>
@@ -295,7 +295,7 @@
     <t xml:space="preserve">Yui F</t>
   </si>
   <si>
-    <t xml:space="preserve">Excellent work this month Yui! It’s so great to see your writing and reading improve, you did a great job on the handwriting sheet this month! You’re always so polite &amp; well behaved, and your phonics and listening is getting very good!</t>
+    <t xml:space="preserve">Excellent work this month Yui! It’s so great to see your writing and reading improve, you did a great job on the handwriting sheet this month! You’re always so polite &amp; well behaved, and your phonics + listening is getting very good!</t>
   </si>
   <si>
     <t xml:space="preserve">Yui K</t>
@@ -328,7 +328,7 @@
     <t xml:space="preserve">Yuuri</t>
   </si>
   <si>
-    <t xml:space="preserve">Excellent work this month Yuuri! You were so fast to pick up the Q&amp;A this month (“What do you want to be?” “I want to be a Unicorn!”). You’ve been so friendly &amp; get along well with the other kids in class, and you learned so many of the fairy tale flash cards, you could even help me describe some of them!</t>
+    <t xml:space="preserve">Excellent work this month Yuuri! You were so fast to pick up the Q&amp;A this month (“What do you want to be?” “I want to be a Knight!”). You’ve been so friendly &amp; get along well with the other kids in class, and you learned so many of the fairy tale flash cards, you could even help me describe some of them!</t>
   </si>
   <si>
     <t xml:space="preserve">Akane</t>
@@ -692,8 +692,8 @@
   </sheetPr>
   <dimension ref="A1:H1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A16" colorId="64" zoomScale="45" zoomScaleNormal="45" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C43" activeCellId="0" sqref="C43"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A22" colorId="64" zoomScale="45" zoomScaleNormal="45" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C32" activeCellId="0" sqref="C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
